--- a/REGULAR/ADMIN/DIMAPILIS, JONNA.xlsx
+++ b/REGULAR/ADMIN/DIMAPILIS, JONNA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="377">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1154,6 +1154,18 @@
   </si>
   <si>
     <t>12/13,19,22,28/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-5-43)</t>
+  </si>
+  <si>
+    <t>UT(0-3-48)</t>
   </si>
 </sst>
 </file>
@@ -2205,11 +2217,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="241209272"/>
-        <c:axId val="241209664"/>
+        <c:axId val="3405224"/>
+        <c:axId val="3405616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241209272"/>
+        <c:axId val="3405224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241209664"/>
+        <c:crossAx val="3405616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,7 +2271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241209664"/>
+        <c:axId val="3405616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="241209272"/>
+        <c:crossAx val="3405224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4527,7 +4539,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K617" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K619" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4905,12 +4917,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K617"/>
+  <dimension ref="A2:K619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A587" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A590" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K605" sqref="K605"/>
+      <selection pane="bottomLeft" activeCell="F602" sqref="F602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,7 +5085,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>243.59400000000008</v>
+        <v>243.90400000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5083,7 +5095,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>290.125</v>
+        <v>293.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17914,11 +17926,15 @@
       <c r="A594" s="40">
         <v>45017</v>
       </c>
-      <c r="B594" s="20"/>
+      <c r="B594" s="20" t="s">
+        <v>376</v>
+      </c>
       <c r="C594" s="13">
         <v>1.25</v>
       </c>
-      <c r="D594" s="39"/>
+      <c r="D594" s="39">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
       <c r="G594" s="13">
@@ -17958,11 +17974,15 @@
       <c r="A596" s="40">
         <v>45078</v>
       </c>
-      <c r="B596" s="20"/>
+      <c r="B596" s="20" t="s">
+        <v>374</v>
+      </c>
       <c r="C596" s="13">
         <v>1.25</v>
       </c>
-      <c r="D596" s="39"/>
+      <c r="D596" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
       <c r="G596" s="13">
@@ -18039,30 +18059,28 @@
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
       <c r="K599" s="50">
-        <v>45149</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="C600" s="13"/>
-      <c r="D600" s="39"/>
+      <c r="D600" s="39">
+        <v>0.71499999999999997</v>
+      </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
       <c r="G600" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H600" s="39">
-        <v>1</v>
-      </c>
+      <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="50">
-        <v>45169</v>
-      </c>
+      <c r="K600" s="50"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
@@ -18137,15 +18155,13 @@
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
@@ -18156,38 +18172,48 @@
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20" t="s">
-        <v>372</v>
-      </c>
+      <c r="K604" s="50"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B605" s="20"/>
-      <c r="C605" s="13"/>
-      <c r="D605" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B605" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C605" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D605" s="39">
+        <v>4</v>
+      </c>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G605" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="20" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40"/>
+      <c r="A606" s="40">
+        <v>45261</v>
+      </c>
       <c r="B606" s="20"/>
-      <c r="C606" s="13"/>
+      <c r="C606" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G606" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
@@ -18195,7 +18221,9 @@
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="40"/>
+      <c r="A607" s="48" t="s">
+        <v>373</v>
+      </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
       <c r="D607" s="39"/>
@@ -18211,7 +18239,9 @@
       <c r="K607" s="20"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A608" s="40"/>
+      <c r="A608" s="40">
+        <v>45292</v>
+      </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
@@ -18227,7 +18257,9 @@
       <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A609" s="40"/>
+      <c r="A609" s="40">
+        <v>45323</v>
+      </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
@@ -18243,7 +18275,9 @@
       <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A610" s="40"/>
+      <c r="A610" s="40">
+        <v>45352</v>
+      </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
@@ -18259,7 +18293,9 @@
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A611" s="40"/>
+      <c r="A611" s="40">
+        <v>45383</v>
+      </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="39"/>
@@ -18275,7 +18311,9 @@
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A612" s="40"/>
+      <c r="A612" s="40">
+        <v>45413</v>
+      </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="39"/>
@@ -18291,7 +18329,9 @@
       <c r="K612" s="20"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A613" s="40"/>
+      <c r="A613" s="40">
+        <v>45444</v>
+      </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
       <c r="D613" s="39"/>
@@ -18307,7 +18347,9 @@
       <c r="K613" s="20"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" s="40"/>
+      <c r="A614" s="40">
+        <v>45474</v>
+      </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
@@ -18323,7 +18365,9 @@
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" s="40"/>
+      <c r="A615" s="40">
+        <v>45505</v>
+      </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
       <c r="D615" s="39"/>
@@ -18339,7 +18383,9 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+      <c r="A616" s="40">
+        <v>45536</v>
+      </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -18355,20 +18401,52 @@
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" s="41"/>
-      <c r="B617" s="15"/>
-      <c r="C617" s="42"/>
-      <c r="D617" s="43"/>
-      <c r="E617" s="52"/>
-      <c r="F617" s="15"/>
-      <c r="G617" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H617" s="43"/>
-      <c r="I617" s="52"/>
-      <c r="J617" s="12"/>
-      <c r="K617" s="15"/>
+      <c r="A617" s="40"/>
+      <c r="B617" s="20"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="39"/>
+      <c r="E617" s="9"/>
+      <c r="F617" s="20"/>
+      <c r="G617" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H617" s="39"/>
+      <c r="I617" s="9"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618" s="40"/>
+      <c r="B618" s="20"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="39"/>
+      <c r="E618" s="9"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H618" s="39"/>
+      <c r="I618" s="9"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="41"/>
+      <c r="B619" s="15"/>
+      <c r="C619" s="42"/>
+      <c r="D619" s="43"/>
+      <c r="E619" s="52"/>
+      <c r="F619" s="15"/>
+      <c r="G619" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H619" s="43"/>
+      <c r="I619" s="52"/>
+      <c r="J619" s="12"/>
+      <c r="K619" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18482,14 +18560,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.01</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -18538,7 +18616,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>533.71900000000005</v>
+        <v>537.52900000000011</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
